--- a/Golang SHA256 Benchmark CPU Test.xlsx
+++ b/Golang SHA256 Benchmark CPU Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>CPU</t>
   </si>
@@ -40,15 +40,9 @@
     <t>Lenovo B570</t>
   </si>
   <si>
-    <t>Dell</t>
-  </si>
-  <si>
     <t>Redmi Note 8 Pro</t>
   </si>
   <si>
-    <t>Neo3</t>
-  </si>
-  <si>
     <t>Mi Pad 4 Plus</t>
   </si>
   <si>
@@ -58,12 +52,6 @@
     <t>TV Mi-Box S</t>
   </si>
   <si>
-    <t>TV-Box Votex</t>
-  </si>
-  <si>
-    <t>Ryzen 5 3600 GHz</t>
-  </si>
-  <si>
     <t>DDR4 16GB</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t>25s</t>
   </si>
   <si>
-    <t>Intel i5-6200U</t>
-  </si>
-  <si>
     <t>DDR4 8GB</t>
   </si>
   <si>
@@ -169,15 +154,9 @@
     <t>3m</t>
   </si>
   <si>
-    <t>Celeron B800 1.5 GHz</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>1.3 GHz, 2.2 GHz</t>
-  </si>
-  <si>
     <t>Windows</t>
   </si>
   <si>
@@ -191,6 +170,105 @@
   </si>
   <si>
     <t>System</t>
+  </si>
+  <si>
+    <t>Orange Pi Zero3</t>
+  </si>
+  <si>
+    <t>DDR4 4GB</t>
+  </si>
+  <si>
+    <t>Allwinner H618, 1.5 GHz</t>
+  </si>
+  <si>
+    <t>Celeron B800, 1.5 GHz</t>
+  </si>
+  <si>
+    <t>Intel i5-6200U, 2.8 GHz</t>
+  </si>
+  <si>
+    <t>Ryzen 5 3600, 3.6GHz</t>
+  </si>
+  <si>
+    <t>NanoPi NEO3</t>
+  </si>
+  <si>
+    <t>RockChip RK3328, 1.3 GHz</t>
+  </si>
+  <si>
+    <t>Snapdragon 660, 2.2 GHz</t>
+  </si>
+  <si>
+    <t>Exynos 7870, 1.6 GHz</t>
+  </si>
+  <si>
+    <t>ARM Cortex-A55</t>
+  </si>
+  <si>
+    <t>TV-Box Vontar</t>
+  </si>
+  <si>
+    <t>Amlogic S905W2, 1 GHz</t>
+  </si>
+  <si>
+    <t>DDR4 6GB</t>
+  </si>
+  <si>
+    <t>Helio G90T, 2 GHz</t>
+  </si>
+  <si>
+    <t>106ms</t>
+  </si>
+  <si>
+    <t>990ms</t>
+  </si>
+  <si>
+    <t>12.3s</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Zero W</t>
+  </si>
+  <si>
+    <t>Broadcom BCM2835, 1 GHz</t>
+  </si>
+  <si>
+    <t>DDR3 512MB</t>
+  </si>
+  <si>
+    <t>Libre La Frite</t>
+  </si>
+  <si>
+    <t>DDR4 1GB</t>
+  </si>
+  <si>
+    <t>Amlogic S805X-AC, 1.4 GHz</t>
+  </si>
+  <si>
+    <t>Intel E8500 Duo, 3.16 GHz</t>
+  </si>
+  <si>
+    <t>DDR3 8GB</t>
+  </si>
+  <si>
+    <t>PC Dell</t>
+  </si>
+  <si>
+    <t>70ms</t>
+  </si>
+  <si>
+    <t>700ms</t>
+  </si>
+  <si>
+    <t>6.5s</t>
+  </si>
+  <si>
+    <t>Raspberry Pi B</t>
+  </si>
+  <si>
+    <t>ARM1176JZF-S, 700 МГц</t>
+  </si>
+  <si>
+    <t>DDR2 256MB</t>
   </si>
 </sst>
 </file>
@@ -587,18 +665,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
@@ -607,10 +685,10 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -633,225 +711,341 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>78</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Golang SHA256 Benchmark CPU Test.xlsx
+++ b/Golang SHA256 Benchmark CPU Test.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
   <si>
     <t>CPU</t>
   </si>
@@ -31,15 +31,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>MacBook Pro</t>
-  </si>
-  <si>
-    <t>TingPad</t>
-  </si>
-  <si>
-    <t>Lenovo B570</t>
-  </si>
-  <si>
     <t>Redmi Note 8 Pro</t>
   </si>
   <si>
@@ -121,39 +112,15 @@
     <t>DDR4 2GB</t>
   </si>
   <si>
-    <t>191ms</t>
-  </si>
-  <si>
-    <t>7.435s</t>
-  </si>
-  <si>
-    <t>61-269ms</t>
-  </si>
-  <si>
-    <t>2.5-3.6s</t>
-  </si>
-  <si>
     <t>440ms</t>
   </si>
   <si>
-    <t>44.500s</t>
-  </si>
-  <si>
     <t>DDR3 2GB</t>
   </si>
   <si>
     <t>550ms</t>
   </si>
   <si>
-    <t>1m3s</t>
-  </si>
-  <si>
-    <t>1.2s</t>
-  </si>
-  <si>
-    <t>3m</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -178,45 +145,18 @@
     <t>DDR4 4GB</t>
   </si>
   <si>
-    <t>Allwinner H618, 1.5 GHz</t>
-  </si>
-  <si>
-    <t>Celeron B800, 1.5 GHz</t>
-  </si>
-  <si>
-    <t>Intel i5-6200U, 2.8 GHz</t>
-  </si>
-  <si>
-    <t>Ryzen 5 3600, 3.6GHz</t>
-  </si>
-  <si>
     <t>NanoPi NEO3</t>
   </si>
   <si>
-    <t>RockChip RK3328, 1.3 GHz</t>
-  </si>
-  <si>
-    <t>Snapdragon 660, 2.2 GHz</t>
-  </si>
-  <si>
-    <t>Exynos 7870, 1.6 GHz</t>
-  </si>
-  <si>
     <t>ARM Cortex-A55</t>
   </si>
   <si>
     <t>TV-Box Vontar</t>
   </si>
   <si>
-    <t>Amlogic S905W2, 1 GHz</t>
-  </si>
-  <si>
     <t>DDR4 6GB</t>
   </si>
   <si>
-    <t>Helio G90T, 2 GHz</t>
-  </si>
-  <si>
     <t>106ms</t>
   </si>
   <si>
@@ -229,9 +169,6 @@
     <t>Raspberry Pi Zero W</t>
   </si>
   <si>
-    <t>Broadcom BCM2835, 1 GHz</t>
-  </si>
-  <si>
     <t>DDR3 512MB</t>
   </si>
   <si>
@@ -241,34 +178,160 @@
     <t>DDR4 1GB</t>
   </si>
   <si>
-    <t>Amlogic S805X-AC, 1.4 GHz</t>
-  </si>
-  <si>
-    <t>Intel E8500 Duo, 3.16 GHz</t>
-  </si>
-  <si>
     <t>DDR3 8GB</t>
   </si>
   <si>
     <t>PC Dell</t>
   </si>
   <si>
-    <t>70ms</t>
-  </si>
-  <si>
-    <t>700ms</t>
-  </si>
-  <si>
     <t>6.5s</t>
   </si>
   <si>
     <t>Raspberry Pi B</t>
   </si>
   <si>
-    <t>ARM1176JZF-S, 700 МГц</t>
-  </si>
-  <si>
     <t>DDR2 256MB</t>
+  </si>
+  <si>
+    <t>MacBook Pro A1398</t>
+  </si>
+  <si>
+    <t>VPS Server Contabo</t>
+  </si>
+  <si>
+    <t>55ms</t>
+  </si>
+  <si>
+    <t>500ms</t>
+  </si>
+  <si>
+    <t>5.2s</t>
+  </si>
+  <si>
+    <t>Intel i5</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo B570</t>
+  </si>
+  <si>
+    <t>Notebook TingPad Yoda460</t>
+  </si>
+  <si>
+    <t>7s</t>
+  </si>
+  <si>
+    <t>715ms</t>
+  </si>
+  <si>
+    <t>77ms</t>
+  </si>
+  <si>
+    <t>54ms</t>
+  </si>
+  <si>
+    <t>547ms</t>
+  </si>
+  <si>
+    <t>1m12s</t>
+  </si>
+  <si>
+    <t>56-228ms</t>
+  </si>
+  <si>
+    <t>355-900ms</t>
+  </si>
+  <si>
+    <t>2.8-3.7s</t>
+  </si>
+  <si>
+    <t>1-3s</t>
+  </si>
+  <si>
+    <t>11-20s</t>
+  </si>
+  <si>
+    <t>5.5s</t>
+  </si>
+  <si>
+    <t>4.4s</t>
+  </si>
+  <si>
+    <t>GHz</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>ARM1176JZF-S</t>
+  </si>
+  <si>
+    <t>Broadcom BCM2835</t>
+  </si>
+  <si>
+    <t>Amlogic S805X-AC</t>
+  </si>
+  <si>
+    <t>Amlogic S905W2</t>
+  </si>
+  <si>
+    <t>Exynos 7870</t>
+  </si>
+  <si>
+    <t>Snapdragon 660</t>
+  </si>
+  <si>
+    <t>Allwinner H618</t>
+  </si>
+  <si>
+    <t>RockChip RK3328</t>
+  </si>
+  <si>
+    <t>Helio G90T</t>
+  </si>
+  <si>
+    <t>Intel E8500 Duo</t>
+  </si>
+  <si>
+    <t>Celeron B800</t>
+  </si>
+  <si>
+    <t>Intel i5-6200U</t>
+  </si>
+  <si>
+    <t>Intel Core i7</t>
+  </si>
+  <si>
+    <t>Ryzen 5 3600</t>
   </si>
 </sst>
 </file>
@@ -352,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -371,6 +434,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -665,391 +732,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>100000</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <v>1000000</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="C7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>74</v>
+      <c r="G17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D16 D14 D7" numberStoredAsText="1"/>
+    <ignoredError sqref="D6" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Golang SHA256 Benchmark CPU Test.xlsx
+++ b/Golang SHA256 Benchmark CPU Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
   <si>
     <t>CPU</t>
   </si>
@@ -332,6 +332,27 @@
   </si>
   <si>
     <t>Ryzen 5 3600</t>
+  </si>
+  <si>
+    <t>DDR3 16GB</t>
+  </si>
+  <si>
+    <t>AMD Phenom II X4 975</t>
+  </si>
+  <si>
+    <t>48ms</t>
+  </si>
+  <si>
+    <t>477ms</t>
+  </si>
+  <si>
+    <t>4.8s</t>
+  </si>
+  <si>
+    <t>48s</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -415,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +459,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -732,26 +754,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="13" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -779,8 +802,11 @@
       <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -808,8 +834,11 @@
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
@@ -837,8 +866,11 @@
       <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -866,8 +898,11 @@
       <c r="I4" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -895,8 +930,11 @@
       <c r="I5" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -924,8 +962,11 @@
       <c r="I6" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
@@ -953,8 +994,11 @@
       <c r="I7" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -982,8 +1026,11 @@
       <c r="I8" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1011,8 +1058,11 @@
       <c r="I9" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
@@ -1040,8 +1090,11 @@
       <c r="I10" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
@@ -1069,8 +1122,11 @@
       <c r="I11" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -1098,8 +1154,11 @@
       <c r="I12" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
@@ -1127,8 +1186,11 @@
       <c r="I13" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -1156,8 +1218,11 @@
       <c r="I14" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -1179,8 +1244,11 @@
       <c r="I15" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -1205,8 +1273,11 @@
       <c r="I16" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
         <v>37</v>
       </c>
@@ -1231,6 +1302,44 @@
       <c r="I17" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="J17" s="10">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="10">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="J19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
